--- a/DateBase/orders/Dang Nguyen_2025-8-16.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-8-16.xlsx
@@ -1157,6 +1157,9 @@
       <c r="G2" t="str">
         <v>06108105.51104.514121010961182015151515202020151010115105555105562051061010510155151551510103055555151010156661515108215555510</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
